--- a/biology/Médecine/Louis-Lazare_Zamenhof/Louis-Lazare_Zamenhof.xlsx
+++ b/biology/Médecine/Louis-Lazare_Zamenhof/Louis-Lazare_Zamenhof.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lazare Markovitch Zamenhof, plus connu sous le nom de Louis-Lazare Zamenhof, est un médecin ophtalmologue né le 15 décembre 1859 à Białystok dans l'Empire russe et mort le  14 avril 1917 à Varsovie.
-Né dans une famille juive, ses langues d’usage sont le yiddish, le russe et le polonais. Il est connu pour avoir élaboré la langue construite espéranto dans son ouvrage Langue Internationale, publié en russe le 26 juillet 1887 sous le pseudonyme Doktoro Esperanto (« le docteur qui espère »). Il fut nommé une douzaine de fois au prix Nobel de la paix[1].
+Né dans une famille juive, ses langues d’usage sont le yiddish, le russe et le polonais. Il est connu pour avoir élaboré la langue construite espéranto dans son ouvrage Langue Internationale, publié en russe le 26 juillet 1887 sous le pseudonyme Doktoro Esperanto (« le docteur qui espère »). Il fut nommé une douzaine de fois au prix Nobel de la paix.
 </t>
         </is>
       </c>
@@ -514,23 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Białystok au XIXe siècle
-La ville cosmopolite de Białystok faisait alors partie de l'Empire russe (gouvernement de Grodno) et était habitée par des Polonais, des Allemands et des Russes de religions diverses. Ville de 30 000 habitants, Białystok héberge quatre communautés et quatre langues qui forment des barrières sociales : le russe (4 000), polonais (3 000), allemand (5 000) et yiddish (18 000)[2].
-Enfance à Białystok
-Louis-Lazare Zamenhof nait le 15 décembre 1859 dans une famille d’origine israélite, à Białystok[C 1]. Markus Zamenhof, son père, né en 1837, est instituteur d’allemand et de français et fonde une école à Białystok[C 2],[3]. Rigoureux et travailleur, il rejette la pratique du judaïsme[C 2]. Rosalia Zamenhof, née Sofer en 1839, sa mère, éduque ses enfants dans l’amour de Dieu et de son prochain[C 3],[3]. Zamenhof est l’ainé d’une fratrie de onze enfants, dont trois meurent jeunes[4].
-Zamenhof apprend rapidement plusieurs langues[C 4]. À dix ans, il parle quatre langues[C 4]. Ses parents l’élèvent en utilisant le russe et le polonais[C 4]. Il apprend également le yiddish dans son quartier et l’hébreu par la pratique religieuse[C 4]. Son père lui enseigne également l’allemand, avec lequel il a des facilités, et le français, avec lequel il a plus de difficultés[C 4]. Son intérêt pour les langues réside dans le soupçon qu’il a que leur grand nombre est source de désunion[C 4]. Ce soupçon apparait tôt chez Zamenhof, qui se rend souvent sur la place de Białystok, où il constate que les différents groupes de la ville se comprennent difficilement[C 5]. Dans sa lettre de 1896, il confie à Nikolaï Afrikanovitch Borovko les propos suivants :
-« Mon éducation a fait de moi un idéaliste ; on m’a enseigné que tous les hommes sont frères, et pendant ce temps, dans la rue, dans la cour, à chaque pas, tout me faisait sentir que les hommes n’existent pas : il n’existe que des Russes, des Polonais, des Allemands, des Juifs, etc. Cela a toujours tourmenté mon âme d’enfant, encore que beaucoup souriront peut-être de cette « douleur du monde » chez un enfant. Comme il me semblait alors que les « grandes personnes » possédaient la toute-puissance, je me répétais que lorsque je serais grand, je devrais supprimer ce malheur. »[5]
-— Louis-Lazare Zamenhof, Lettre à Borovko
-Varsovie
-En 1873, Markus Zamenhof accepte un poste d’enseignant d’allemand au gymnasium royal et à l’institut vétérinaire de Varsovie[3]. La famille y déménage[3].
-Le premier projet de langue internationale
-Alors qu’il aime la langue russe, Louis-Lazare voit pourtant cet état d’esprit[pas clair], à l’échelle du monde, à travers une langue n’appartenant à aucun pays dominant, sans lien avec quelque nation que ce soit. Il s’attèle donc sans tarder à la tâche. Il n’a que 19 ans lorsqu’il présente un projet baptisé Lingwe Uniwersala à ses camarades de lycée[6].
-Études
-À Moscou, les études de médecine n’empêchent pas Louis-Lazare de toujours s’intéresser aux langues. À 20 ans, il rédige la première grammaire yiddish, restée non publiée[7].
-Après deux ans d’études, il revient à Varsovie, certain que son père, homme scrupuleux, a conservé ses manuscrits en lieu sûr et qu’il pourra enfin reprendre ses travaux linguistiques. Mais sa mère lui révèle alors que son père a tout détruit. L’amertume et la rancœur cèdent vite la place à la détermination. Quoi qu’il en soit, Louis-Lazare se sent désormais libre et se remet à l’ouvrage. Sa mémoire lui permet de reconstituer l’essentiel de sa langue. Il lui apporte des modifications et des améliorations. On sait qu’il effectua ses observations de linguistique comparée lors de ses études de médecine à Moscou, ceci grâce aux contacts directs qu’il avait avec des étudiants venus de toutes les régions linguistiques du vaste empire russe[8].
-1887 : année de la chance
-Le 26 juillet 1887, après bien des difficultés, parmi lesquelles la censure et les obstacles financiers, résolus grâce à son futur beau-père, Louis-Lazare parvient à publier un premier manuel en russe sous le titre Langue Internationale. Il adopte alors le pseudonyme de « Doktoro Esperanto ». C’est par le biais de ce pseudonyme que nait le nom sous lequel la Langue Internationale se fera peu à peu connaître du grand public[9].
-Il travaille toujours intensivement, malgré bien des épreuves. Il écrit en prose et en vers et réalise de nombreuses traductions, afin que la Langue Internationale soit éprouvée, rodée, qu’elle n’ait rien à envier aux autres sur les plans de l’expression, de la précision, de l’esthétique. Des avis favorables se manifestent peu à peu : American Philosophical Society en 1889, Max Müller, l’un des plus éminents linguistes de l’époque, et Léon Tolstoï en 1894. En 1889 paraît la première liste de mille adresses ; il y en aura 5 567 en 1900, 13 103 en 1905[10].
+          <t>Białystok au XIXe siècle</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La ville cosmopolite de Białystok faisait alors partie de l'Empire russe (gouvernement de Grodno) et était habitée par des Polonais, des Allemands et des Russes de religions diverses. Ville de 30 000 habitants, Białystok héberge quatre communautés et quatre langues qui forment des barrières sociales : le russe (4 000), polonais (3 000), allemand (5 000) et yiddish (18 000).
 </t>
         </is>
       </c>
@@ -556,13 +558,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Falsifications</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">En 2008, Árpád Rátkai compile les informations de 97 encyclopédies dans 19 langues différentes[K 1]. Il identifie 34 formes de prénoms de Zamenhof différents[K 1],[11].
-</t>
+          <t>Enfance à Białystok</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Louis-Lazare Zamenhof nait le 15 décembre 1859 dans une famille d’origine israélite, à Białystok[C 1]. Markus Zamenhof, son père, né en 1837, est instituteur d’allemand et de français et fonde une école à Białystok[C 2],. Rigoureux et travailleur, il rejette la pratique du judaïsme[C 2]. Rosalia Zamenhof, née Sofer en 1839, sa mère, éduque ses enfants dans l’amour de Dieu et de son prochain[C 3],. Zamenhof est l’ainé d’une fratrie de onze enfants, dont trois meurent jeunes.
+Zamenhof apprend rapidement plusieurs langues[C 4]. À dix ans, il parle quatre langues[C 4]. Ses parents l’élèvent en utilisant le russe et le polonais[C 4]. Il apprend également le yiddish dans son quartier et l’hébreu par la pratique religieuse[C 4]. Son père lui enseigne également l’allemand, avec lequel il a des facilités, et le français, avec lequel il a plus de difficultés[C 4]. Son intérêt pour les langues réside dans le soupçon qu’il a que leur grand nombre est source de désunion[C 4]. Ce soupçon apparait tôt chez Zamenhof, qui se rend souvent sur la place de Białystok, où il constate que les différents groupes de la ville se comprennent difficilement[C 5]. Dans sa lettre de 1896, il confie à Nikolaï Afrikanovitch Borovko les propos suivants :
+« Mon éducation a fait de moi un idéaliste ; on m’a enseigné que tous les hommes sont frères, et pendant ce temps, dans la rue, dans la cour, à chaque pas, tout me faisait sentir que les hommes n’existent pas : il n’existe que des Russes, des Polonais, des Allemands, des Juifs, etc. Cela a toujours tourmenté mon âme d’enfant, encore que beaucoup souriront peut-être de cette « douleur du monde » chez un enfant. Comme il me semblait alors que les « grandes personnes » possédaient la toute-puissance, je me répétais que lorsque je serais grand, je devrais supprimer ce malheur. »
+— Louis-Lazare Zamenhof, Lettre à Borovko</t>
         </is>
       </c>
     </row>
@@ -587,21 +597,244 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Varsovie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1873, Markus Zamenhof accepte un poste d’enseignant d’allemand au gymnasium royal et à l’institut vétérinaire de Varsovie. La famille y déménage.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Louis-Lazare_Zamenhof</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis-Lazare_Zamenhof</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Le premier projet de langue internationale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alors qu’il aime la langue russe, Louis-Lazare voit pourtant cet état d’esprit[pas clair], à l’échelle du monde, à travers une langue n’appartenant à aucun pays dominant, sans lien avec quelque nation que ce soit. Il s’attèle donc sans tarder à la tâche. Il n’a que 19 ans lorsqu’il présente un projet baptisé Lingwe Uniwersala à ses camarades de lycée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Louis-Lazare_Zamenhof</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis-Lazare_Zamenhof</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Études</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À Moscou, les études de médecine n’empêchent pas Louis-Lazare de toujours s’intéresser aux langues. À 20 ans, il rédige la première grammaire yiddish, restée non publiée.
+Après deux ans d’études, il revient à Varsovie, certain que son père, homme scrupuleux, a conservé ses manuscrits en lieu sûr et qu’il pourra enfin reprendre ses travaux linguistiques. Mais sa mère lui révèle alors que son père a tout détruit. L’amertume et la rancœur cèdent vite la place à la détermination. Quoi qu’il en soit, Louis-Lazare se sent désormais libre et se remet à l’ouvrage. Sa mémoire lui permet de reconstituer l’essentiel de sa langue. Il lui apporte des modifications et des améliorations. On sait qu’il effectua ses observations de linguistique comparée lors de ses études de médecine à Moscou, ceci grâce aux contacts directs qu’il avait avec des étudiants venus de toutes les régions linguistiques du vaste empire russe.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Louis-Lazare_Zamenhof</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis-Lazare_Zamenhof</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1887 : année de la chance</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 26 juillet 1887, après bien des difficultés, parmi lesquelles la censure et les obstacles financiers, résolus grâce à son futur beau-père, Louis-Lazare parvient à publier un premier manuel en russe sous le titre Langue Internationale. Il adopte alors le pseudonyme de « Doktoro Esperanto ». C’est par le biais de ce pseudonyme que nait le nom sous lequel la Langue Internationale se fera peu à peu connaître du grand public.
+Il travaille toujours intensivement, malgré bien des épreuves. Il écrit en prose et en vers et réalise de nombreuses traductions, afin que la Langue Internationale soit éprouvée, rodée, qu’elle n’ait rien à envier aux autres sur les plans de l’expression, de la précision, de l’esthétique. Des avis favorables se manifestent peu à peu : American Philosophical Society en 1889, Max Müller, l’un des plus éminents linguistes de l’époque, et Léon Tolstoï en 1894. En 1889 paraît la première liste de mille adresses ; il y en aura 5 567 en 1900, 13 103 en 1905.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Louis-Lazare_Zamenhof</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis-Lazare_Zamenhof</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Falsifications</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2008, Árpád Rátkai compile les informations de 97 encyclopédies dans 19 langues différentes[K 1]. Il identifie 34 formes de prénoms de Zamenhof différents[K 1],.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Louis-Lazare_Zamenhof</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis-Lazare_Zamenhof</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Hommages et postérité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La maison de Białystok
-La maison dans laquelle est né Zamenhof était située au 6 rue Zielona[12]. En 1919, la rue est renommée rue Zamenhof[12]. En 1958, à cause de l’élargissement de la rue, la maison est rasée malgré les protestations des espérantistes polonais[12]. L’année suivante, pour le centenaire de la naissance de Zamenhof, une plaque commémorative est apposée sur un immeuble proche[12].
-Autres
-Un peu après la fondation de la Société des Nations (SDN), 13 pays incluant ensemble environ la moitié de la population mondiale, dont la Chine, l'Inde et le Japon recommandent, en septembre 1922, d'utiliser l'espéranto comme langue de travail additionnelle de l'institution. Cette recommandation se heurte au véto de la France dominée alors par une majorité conservatrice qui pense maintenir ainsi le statut du français comme première langue diplomatique. Néanmoins l'espéranto devient, particulièrement à partir de ce moment, la langue internationale auxiliaire de référence.
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>La maison de Białystok</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maison dans laquelle est né Zamenhof était située au 6 rue Zielona. En 1919, la rue est renommée rue Zamenhof. En 1958, à cause de l’élargissement de la rue, la maison est rasée malgré les protestations des espérantistes polonais. L’année suivante, pour le centenaire de la naissance de Zamenhof, une plaque commémorative est apposée sur un immeuble proche.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Louis-Lazare_Zamenhof</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis-Lazare_Zamenhof</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Hommages et postérité</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un peu après la fondation de la Société des Nations (SDN), 13 pays incluant ensemble environ la moitié de la population mondiale, dont la Chine, l'Inde et le Japon recommandent, en septembre 1922, d'utiliser l'espéranto comme langue de travail additionnelle de l'institution. Cette recommandation se heurte au véto de la France dominée alors par une majorité conservatrice qui pense maintenir ainsi le statut du français comme première langue diplomatique. Néanmoins l'espéranto devient, particulièrement à partir de ce moment, la langue internationale auxiliaire de référence.
 À partir des années 30 les espérantistes vont être fortement réprimés par les dictatures, particulièrement hitlérienne et stalinienne. 
 Le 15 décembre est considéré comme le Jour de Zamenhof par de nombreux espérantistes. Il s'agit de l'anniversaire de Zamenhof, mais aussi le jour où à 19 ans il présenta à ses amis les ébauches de ce qui allait devenir l'espéranto. Les espérantistes profitent généralement de l'occasion pour se réunir.
-De nombreux objets à travers le monde portent le nom de Zamenhof ou de l'Espéranto. Ces objets sont appelés ZEO (Zamenhof/Esperanto objektoj) et sont généralement des rues, mais peuvent être des bateaux, des bustes, des monuments, ou encore l'astéroïde (1462) Zamenhof. Une liste sur la version Espéranto de Wikipédia compte notamment (en mars 2013) pour la France, 95 rues, places, ponts, squares…... portant le nom de Zamenhof, ainsi que cinq monuments lui étant dédiés. À cela s'ajoutent les rues, monuments, arbres dédiés à l'Espéranto ainsi que le musée national de l'espéranto à Gray (Haute-Saône), unique en France[13].
-Parmi les bustes, on cite celui qui fut réalisé par l'artiste-peintre espérantiste Ludovic-Rodo Pissarro et exposé au Salon des indépendants de 1935[14].
+De nombreux objets à travers le monde portent le nom de Zamenhof ou de l'Espéranto. Ces objets sont appelés ZEO (Zamenhof/Esperanto objektoj) et sont généralement des rues, mais peuvent être des bateaux, des bustes, des monuments, ou encore l'astéroïde (1462) Zamenhof. Une liste sur la version Espéranto de Wikipédia compte notamment (en mars 2013) pour la France, 95 rues, places, ponts, squares…... portant le nom de Zamenhof, ainsi que cinq monuments lui étant dédiés. À cela s'ajoutent les rues, monuments, arbres dédiés à l'Espéranto ainsi que le musée national de l'espéranto à Gray (Haute-Saône), unique en France.
+Parmi les bustes, on cite celui qui fut réalisé par l'artiste-peintre espérantiste Ludovic-Rodo Pissarro et exposé au Salon des indépendants de 1935.
 Parmi les adeptes de l'Ōmoto, issue du shintoïsme, il est considéré comme un dieu. Cette religion reconnait de nombreux dieux (kamis) mais qui seraient les différents aspects d’un seul[réf. souhaitée].
-Jusqu'à son décès en 2005, le Japonais Itō Kanji a continué de réunir les écrits et discours de Zamenhof (49 volumes, soit plus de 20 000 pages) sous le pseudonyme de Ludovikito[15].
+Jusqu'à son décès en 2005, le Japonais Itō Kanji a continué de réunir les écrits et discours de Zamenhof (49 volumes, soit plus de 20 000 pages) sous le pseudonyme de Ludovikito.
 			Arbre de Zamenhof, Viet Nam, 2012
 			Buste, Lituanie
 			Buste à Curitiba (Brésil)
@@ -609,70 +842,74 @@
 			Plaque dans le parc floral des Thermes d'Aix les-Bains en Savoie
 			Autobus ayant pour terminus la station Esperanto, Varsovie (Pologne)
 			Plaque se situant à Genève (Suisse) qui indique la maison dans laquelle a habité Zamenhof.
-Le centenaire de la mort de Zamenhof est marqué le 11 décembre 2017, par la clôture de l'année Zamenhof au siège de l'UNESCO[16].
+Le centenaire de la mort de Zamenhof est marqué le 11 décembre 2017, par la clôture de l'année Zamenhof au siège de l'UNESCO.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Louis-Lazare_Zamenhof</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Louis-Lazare_Zamenhof</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Louis-Lazare_Zamenhof</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis-Lazare_Zamenhof</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Enfants</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis-Lazare Zamenhof et sa femme Klara ont eu trois enfants : un fils Adam et deux filles Sofia et Lidia. Lidia Zamenhof devient enseignante de l'espéranto, voyageant en Europe et aux États-Unis et devient baha'ie. Les trois enfants de Louis-Lazare Zamenhof sont assassinés lors de l'Holocauste. Louis-Christophe Zaleski-Zamenhof, fils de Adam Zamenhof et seul petit-enfant de Louis-Lazare Zamenhof sera le seul survivant de la famille.
 Adolf Hitler avait écrit dans Mein Kampf :
-« Tant que le Juif n’est pas devenu le maître des autres peuples, il faut que, bon gré mal gré, il parle leur langue ; mais sitôt que ceux-ci seraient ses esclaves, ils devraient tous apprendre une langue universelle (l'espéranto, par exemple), pour que, par ce moyen, la juiverie puisse les dominer plus facilement[17]. »
-Si bien qu'après l'invasion de la Pologne, la Gestapo de Varsovie reçoit l'ordre de « prendre soin » de la famille Zamenhof. Adam est donc tué dans un camp en 1940 et les deux sœurs sont assassinées dans le camp d'extermination de Treblinka en 1942[18].
+« Tant que le Juif n’est pas devenu le maître des autres peuples, il faut que, bon gré mal gré, il parle leur langue ; mais sitôt que ceux-ci seraient ses esclaves, ils devraient tous apprendre une langue universelle (l'espéranto, par exemple), pour que, par ce moyen, la juiverie puisse les dominer plus facilement. »
+Si bien qu'après l'invasion de la Pologne, la Gestapo de Varsovie reçoit l'ordre de « prendre soin » de la famille Zamenhof. Adam est donc tué dans un camp en 1940 et les deux sœurs sont assassinées dans le camp d'extermination de Treblinka en 1942.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Louis-Lazare_Zamenhof</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Louis-Lazare_Zamenhof</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Louis-Lazare_Zamenhof</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis-Lazare_Zamenhof</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Unua Libro
 Dua Libro</t>
